--- a/soil_morph.xlsx
+++ b/soil_morph.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7A15EE3-DECD-4A03-84DC-25373DE4312C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="2" r:id="rId1"/>
     <sheet name="source" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="84">
   <si>
     <t>Морфологический признак</t>
   </si>
@@ -195,9 +194,6 @@
   </si>
   <si>
     <t>Дополнительные сведения о морфологии почвенного горизонта.</t>
-  </si>
-  <si>
-    <t>MORPH_SOIL_ID</t>
   </si>
   <si>
     <t>Descript</t>
@@ -287,7 +283,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -659,407 +655,320 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55C3BE46-F557-460F-9796-876C33A1E2F7}">
-  <dimension ref="A1:D28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="125.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="11.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="125.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="4"/>
+      <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="4"/>
+      <c r="B8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
-        <v>9</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
-        <v>10</v>
-      </c>
-      <c r="B11" s="5" t="s">
+      <c r="B12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
-        <v>11</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
-        <v>12</v>
-      </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
-        <v>13</v>
-      </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
-        <v>14</v>
-      </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
-        <v>15</v>
-      </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
-        <v>16</v>
-      </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
-        <v>17</v>
-      </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
-        <v>18</v>
-      </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
-        <v>19</v>
-      </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
-        <v>20</v>
-      </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
-        <v>21</v>
-      </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="3">
-        <v>22</v>
-      </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="3">
-        <v>23</v>
-      </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="3">
-        <v>24</v>
-      </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="3">
-        <v>25</v>
-      </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="3">
-        <v>26</v>
-      </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="3">
-        <v>27</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>82</v>
+      <c r="B28" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D28" s="3" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1069,7 +978,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
